--- a/data/trans_dic/P32-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07481674696095104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08029123470575796</v>
+        <v>0.08029123470575794</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02840561262857983</v>
@@ -685,7 +685,7 @@
         <v>0.07074544461859786</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08461921304629691</v>
+        <v>0.0846192130462969</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04248938291910435</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03017930100545926</v>
+        <v>0.03023588403327727</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07538214434974441</v>
+        <v>0.07319010930104849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04429669122415913</v>
+        <v>0.0473536038599183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03106067269529047</v>
+        <v>0.0299916224740355</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01032403216009814</v>
+        <v>0.01031025711965978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01025824379715716</v>
+        <v>0.01027086842002766</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03775591878009195</v>
+        <v>0.03977388224169034</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03097581526114532</v>
+        <v>0.02926947735623788</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02702794710958465</v>
+        <v>0.02598842475560858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05361086028188204</v>
+        <v>0.05383414490532271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04957750171515736</v>
+        <v>0.04942520394943198</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04431964940449632</v>
+        <v>0.04030189277292219</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0840131402192955</v>
+        <v>0.08935721263206095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1504038822578276</v>
+        <v>0.1456022989995225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.120307198960887</v>
+        <v>0.1164539857383427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1837016644090081</v>
+        <v>0.1713256013751685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06032991808489657</v>
+        <v>0.0645276544058303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0590910046614172</v>
+        <v>0.05950454355751179</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1154882805835392</v>
+        <v>0.1242775780672301</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1710291094988248</v>
+        <v>0.1724632039058874</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06523602872607119</v>
+        <v>0.06553598373738598</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1017256299896066</v>
+        <v>0.1015648141115301</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1052321729143439</v>
+        <v>0.103050551964683</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1511459859322725</v>
+        <v>0.1497652147174624</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03726917614538049</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0350790318765932</v>
+        <v>0.03507903187659319</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02451740666160688</v>
@@ -833,7 +833,7 @@
         <v>0.05777026529042922</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05869611352212153</v>
+        <v>0.05869611352212152</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01713829129981863</v>
+        <v>0.01692274646590028</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05697020329488077</v>
+        <v>0.05388444279305861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04843309109135071</v>
+        <v>0.04671606565288092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03828119360307901</v>
+        <v>0.04139354741189455</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01729710087491652</v>
+        <v>0.01571655314277332</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0202434809376269</v>
+        <v>0.01640794790124906</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01048449769544622</v>
+        <v>0.009532745981021974</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01491246236570701</v>
+        <v>0.01545905212389192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04916929416300446</v>
+        <v>0.04912024932177923</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04206472164025515</v>
+        <v>0.04064767260732769</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03368696805451305</v>
+        <v>0.03329337713990776</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04705447358855253</v>
+        <v>0.04928714481538984</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1088253926043914</v>
+        <v>0.109908995776658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1042736076937003</v>
+        <v>0.103525551296933</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1300891264772351</v>
+        <v>0.1266686983761273</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04123428122097551</v>
+        <v>0.04820022696236695</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08255279886203017</v>
+        <v>0.08581701956121797</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07312620996487469</v>
+        <v>0.06632517091611047</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08346212019578778</v>
+        <v>0.08117954489419293</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03843309572332504</v>
+        <v>0.0390228511839448</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09111901744572273</v>
+        <v>0.09022178463400278</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08200799729486831</v>
+        <v>0.07719398969594954</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09099609970358473</v>
+        <v>0.09315837091874565</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03186936883217599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07035360419594282</v>
+        <v>0.0703536041959428</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.009630222527336229</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004496554222878704</v>
+        <v>0.004382201371481594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03025750810591264</v>
+        <v>0.0302316438894685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01772565901420147</v>
+        <v>0.01677707642815789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04392657625194007</v>
+        <v>0.04392365653038866</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01526422847888212</v>
+        <v>0.0122334730771184</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003301760767817868</v>
+        <v>0.001187368012530502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007569403631142553</v>
+        <v>0.007032258381045754</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004487030528991924</v>
+        <v>0.004998943062087968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02920773566936014</v>
+        <v>0.02798020065471692</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01491748164878775</v>
+        <v>0.01491586948481336</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03588928560402026</v>
+        <v>0.03450393276270594</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02795819650471917</v>
+        <v>0.02643697025938859</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07335311712870929</v>
+        <v>0.07165575029649844</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05612950580046818</v>
+        <v>0.05320162753577965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1031909664786274</v>
+        <v>0.1069438361942994</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03348308023090003</v>
+        <v>0.02972997385513431</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07408328598165106</v>
+        <v>0.06799478191353707</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03462333314812931</v>
+        <v>0.03136761154493964</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05038109576846424</v>
+        <v>0.04639291425786161</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0215691850622397</v>
+        <v>0.02417293064772945</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06026339237351747</v>
+        <v>0.06105044283952893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04021216117362632</v>
+        <v>0.03868006541706548</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07750223874351624</v>
+        <v>0.07797506367726015</v>
       </c>
     </row>
     <row r="13">
@@ -1116,38 +1116,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00341068869281094</v>
+        <v>0.003379430936430749</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04834003437868061</v>
+        <v>0.04964523654348999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04205765007839876</v>
+        <v>0.04243294805821653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02625185986677453</v>
+        <v>0.0256416037313658</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.01610112616659209</v>
+        <v>0.01635336412222498</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009936387694683597</v>
+        <v>0.009686041558850896</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004650931821960087</v>
+        <v>0.004683660153705615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03156677503315897</v>
+        <v>0.0327276206134481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0378183136397798</v>
+        <v>0.03676429612450248</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02481790608131925</v>
+        <v>0.02420663245614248</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03237639489750409</v>
+        <v>0.03382727081159399</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1055182353529576</v>
+        <v>0.1112477012978791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09435552972168247</v>
+        <v>0.09508459984914697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0724932739141278</v>
+        <v>0.06998680207403855</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04721645568094304</v>
+        <v>0.05204865260154357</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.06284436461192014</v>
+        <v>0.06242863502647358</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04552254823976683</v>
+        <v>0.04320312033543194</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02873595227189955</v>
+        <v>0.02849853156724589</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.067123219724189</v>
+        <v>0.07076674685438167</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07249167771441127</v>
+        <v>0.07257977302880136</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05513695431212821</v>
+        <v>0.05316345887530961</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.0575723887826019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08860330312806888</v>
+        <v>0.0886033031280689</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01365797430832648</v>
@@ -1237,7 +1237,7 @@
         <v>0.04952662809156771</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06987415122250068</v>
+        <v>0.06987415122250069</v>
       </c>
     </row>
     <row r="17">
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02913435234087893</v>
+        <v>0.02886416376066668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01373496325655442</v>
+        <v>0.01330294387710864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03508002621523196</v>
+        <v>0.03311654252799474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06098891934577266</v>
+        <v>0.06132980367221566</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008565632160561604</v>
+        <v>0.008571445806579573</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01639109116078544</v>
+        <v>0.01665874562645601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02263452522226243</v>
+        <v>0.02126483292791842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01351311150279439</v>
+        <v>0.01214763390121816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03029383549469939</v>
+        <v>0.02947506719141167</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04803857591846752</v>
+        <v>0.04954316432276479</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1035253086195184</v>
+        <v>0.09586394213386332</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07219214918751052</v>
+        <v>0.07116579270717141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09444322804444011</v>
+        <v>0.09153355236066849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1252073538072112</v>
+        <v>0.1268691863380465</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07390998167075025</v>
+        <v>0.06900628706474048</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04536136529125556</v>
+        <v>0.0495851800360207</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08383453418238816</v>
+        <v>0.08968078659880339</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06812249447315094</v>
+        <v>0.06369891023627733</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.073371007437272</v>
+        <v>0.07413041811596012</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05614219137548054</v>
+        <v>0.05331640582492581</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07719227359300768</v>
+        <v>0.07587539294678845</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09599452055670551</v>
+        <v>0.09469455483828079</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.01160420136760041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06381118189987139</v>
+        <v>0.06381118189987141</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0.01588174247709008</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02131361514809176</v>
+        <v>0.02131361514809177</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01577476382149702</v>
@@ -1373,7 +1373,7 @@
         <v>0.01279377519613343</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05205392306909164</v>
+        <v>0.05205392306909163</v>
       </c>
     </row>
     <row r="20">
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03133321348069371</v>
+        <v>0.02712164065020889</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03984928132953074</v>
+        <v>0.03743498759099927</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005727062611479078</v>
+        <v>0.005752047243570012</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02278735190539165</v>
+        <v>0.01913534884046249</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.00386992514648787</v>
+        <v>0.00397333004775175</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03199705882856887</v>
+        <v>0.03253229360267336</v>
       </c>
     </row>
     <row r="21">
@@ -1424,36 +1424,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07510622062274133</v>
+        <v>0.07071445691526179</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1286978013847269</v>
+        <v>0.1281457122215034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0407803751113453</v>
+        <v>0.03936070489998569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09815605364363943</v>
+        <v>0.09883973239533182</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.06743411067752865</v>
+        <v>0.08338072691353131</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05853723504832224</v>
+        <v>0.06170090622547723</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05237975602117705</v>
+        <v>0.05698905567120206</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0920830458295535</v>
+        <v>0.0910439994947068</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03860186281939783</v>
+        <v>0.03670659348911345</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07759040007162284</v>
+        <v>0.07606880158482719</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.02542556980093083</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01233467254317186</v>
+        <v>0.01233467254317187</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.004058245418498636</v>
+        <v>0.004865819291775351</v>
       </c>
     </row>
     <row r="24">
@@ -1550,34 +1550,34 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0918563847515206</v>
+        <v>0.08126347556854609</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04961167776944239</v>
+        <v>0.0396347849560575</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.1466620122532964</v>
+        <v>0.1293981030407621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05914008947222067</v>
+        <v>0.06125892551611732</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04762007851338072</v>
+        <v>0.04593858503473448</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0.05257904566661846</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.01479901423863817</v>
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
     </row>
     <row r="27">
@@ -1680,40 +1680,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="28">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8472</v>
+        <v>8488</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21247</v>
+        <v>20629</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11303</v>
+        <v>12083</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5164</v>
+        <v>4986</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6479</v>
+        <v>6825</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3495</v>
+        <v>3303</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12600</v>
+        <v>12116</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25003</v>
+        <v>25107</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21158</v>
+        <v>21093</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12369</v>
+        <v>11248</v>
       </c>
     </row>
     <row r="7">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23584</v>
+        <v>25084</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42393</v>
+        <v>41039</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30699</v>
+        <v>29716</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30539</v>
+        <v>28482</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11190</v>
+        <v>11968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10903</v>
+        <v>10980</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19817</v>
+        <v>21326</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19299</v>
+        <v>19461</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30412</v>
+        <v>30552</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>47442</v>
+        <v>47367</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44910</v>
+        <v>43979</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>42182</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="8">
@@ -2167,40 +2167,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8601</v>
+        <v>8493</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26601</v>
+        <v>25161</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17755</v>
+        <v>17126</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9550</v>
+        <v>10326</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3692</v>
+        <v>3354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4567</v>
+        <v>3702</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1604</v>
+        <v>1458</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10739</v>
+        <v>11133</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33453</v>
+        <v>33420</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24910</v>
+        <v>24071</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13557</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="11">
@@ -2211,40 +2211,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23616</v>
+        <v>24736</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50814</v>
+        <v>51320</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38225</v>
+        <v>37951</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32453</v>
+        <v>31599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9000</v>
+        <v>10521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17620</v>
+        <v>18316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16497</v>
+        <v>14963</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12769</v>
+        <v>12420</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27678</v>
+        <v>28103</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>61995</v>
+        <v>61384</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>48564</v>
+        <v>45713</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36622</v>
+        <v>37492</v>
       </c>
     </row>
     <row r="12">
@@ -2347,40 +2347,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1807</v>
+        <v>1761</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12922</v>
+        <v>12911</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7646</v>
+        <v>7237</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13740</v>
+        <v>13739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3730</v>
+        <v>2989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>822</v>
+        <v>296</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1286</v>
+        <v>1195</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2809</v>
+        <v>3130</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19611</v>
+        <v>18787</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10151</v>
+        <v>10150</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17324</v>
+        <v>16656</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11233</v>
+        <v>10622</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31326</v>
+        <v>30601</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24212</v>
+        <v>22949</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32276</v>
+        <v>33450</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7509</v>
+        <v>6668</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18103</v>
+        <v>16615</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8625</v>
+        <v>7814</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8562</v>
+        <v>7884</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13504</v>
+        <v>15134</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40462</v>
+        <v>40991</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27363</v>
+        <v>26320</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>37412</v>
+        <v>37640</v>
       </c>
     </row>
     <row r="16">
@@ -2527,38 +2527,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19051</v>
+        <v>19566</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16430</v>
+        <v>16577</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9287</v>
+        <v>9071</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>4270</v>
+        <v>4337</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2107</v>
+        <v>2053</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19243</v>
+        <v>19951</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24804</v>
+        <v>24113</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>14041</v>
+        <v>13695</v>
       </c>
     </row>
     <row r="19">
@@ -2569,38 +2569,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10150</v>
+        <v>10605</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41586</v>
+        <v>43844</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36861</v>
+        <v>37146</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25645</v>
+        <v>24758</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6856</v>
+        <v>7558</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>16667</v>
+        <v>16557</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9651</v>
+        <v>9159</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13181</v>
+        <v>13072</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40918</v>
+        <v>43139</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>47545</v>
+        <v>47603</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31194</v>
+        <v>30077</v>
       </c>
     </row>
     <row r="20">
@@ -2703,16 +2703,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5247</v>
+        <v>5198</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3184</v>
+        <v>3084</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10017</v>
+        <v>9456</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17116</v>
+        <v>17212</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2721,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2425</v>
+        <v>2465</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5784</v>
+        <v>5434</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4634</v>
+        <v>4166</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12608</v>
+        <v>12267</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20590</v>
+        <v>21234</v>
       </c>
     </row>
     <row r="23">
@@ -2747,40 +2747,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18644</v>
+        <v>17264</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16733</v>
+        <v>16496</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26968</v>
+        <v>26137</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35139</v>
+        <v>35605</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5575</v>
+        <v>5206</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5042</v>
+        <v>5512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10951</v>
+        <v>11715</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10079</v>
+        <v>9425</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18748</v>
+        <v>18942</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19254</v>
+        <v>18285</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>32126</v>
+        <v>31578</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>41144</v>
+        <v>40587</v>
       </c>
     </row>
     <row r="24">
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4804</v>
+        <v>4159</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8284</v>
+        <v>7782</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2900,19 +2900,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4804</v>
+        <v>4034</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9195</v>
+        <v>9349</v>
       </c>
     </row>
     <row r="27">
@@ -2923,36 +2923,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9749</v>
+        <v>9179</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19734</v>
+        <v>19649</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7156</v>
+        <v>6907</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20404</v>
+        <v>20546</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>4559</v>
+        <v>5637</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4654</v>
+        <v>4906</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8338</v>
+        <v>9072</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>19413</v>
+        <v>19194</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>9384</v>
+        <v>8923</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>22298</v>
+        <v>21861</v>
       </c>
     </row>
     <row r="28">
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>570</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31">
@@ -3093,34 +3093,34 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8766</v>
+        <v>7755</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5444</v>
+        <v>4350</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>4517</v>
+        <v>3985</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>7807</v>
+        <v>8086</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6692</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="32">
@@ -3223,40 +3223,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
     </row>
     <row r="35">
@@ -3267,40 +3267,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
     </row>
     <row r="36">
